--- a/Ozrit HR data/ozrit/HR/Salary/Attendence/Attendance & salary calculation for the month of July.xlsx
+++ b/Ozrit HR data/ozrit/HR/Salary/Attendence/Attendance & salary calculation for the month of July.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pixld\Downloads\ozrit\Ozrit HR data\ozrit\HR\Salary\Attendence\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A24D9E-A925-449A-A735-B133D42E7C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19160" windowHeight="7130"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Paysheet" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="209">
   <si>
     <t>Month</t>
   </si>
@@ -640,11 +641,20 @@
   <si>
     <t>Emergency leav</t>
   </si>
+  <si>
+    <t xml:space="preserve">Yurraj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sharan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">abhinay </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* \-??_);_(@_)"/>
   </numFmts>
@@ -1403,12 +1413,6 @@
     <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1457,6 +1461,9 @@
     <xf numFmtId="0" fontId="1" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="8" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1477,10 +1484,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1692,16 +1700,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AM1026"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="R1" activePane="topRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="P1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="topRight" activeCell="AG23" sqref="AG23"/>
+      <selection pane="topRight" activeCell="AC4" sqref="AC4:AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1742,29 +1750,29 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="135" t="s">
+      <c r="D1" s="134" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="138" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="137" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="139"/>
-      <c r="O1" s="139"/>
-      <c r="P1" s="139"/>
-      <c r="Q1" s="139"/>
-      <c r="R1" s="139"/>
-      <c r="S1" s="139"/>
-      <c r="T1" s="139"/>
-      <c r="U1" s="139"/>
-      <c r="V1" s="140"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="139"/>
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
@@ -3050,59 +3058,59 @@
       <c r="AL12" s="33"/>
       <c r="AM12" s="34"/>
     </row>
-    <row r="13" spans="1:39" s="117" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="117">
+    <row r="13" spans="1:39" s="115" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="115">
         <v>10</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="119" t="s">
+      <c r="C13" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="121" t="s">
+      <c r="D13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="120" t="s">
+      <c r="G13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="118" t="s">
         <v>23</v>
       </c>
       <c r="K13" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="L13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="M13" s="121" t="s">
+      <c r="L13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="M13" s="119" t="s">
         <v>14</v>
       </c>
-      <c r="N13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="O13" s="122" t="s">
+      <c r="N13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="O13" s="120" t="s">
         <v>23</v>
       </c>
       <c r="P13" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="120" t="s">
+      <c r="Q13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="118" t="s">
         <v>23</v>
       </c>
       <c r="S13" s="20" t="s">
@@ -3117,53 +3125,53 @@
       <c r="V13" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="W13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="X13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y13" s="120" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z13" s="122" t="s">
+      <c r="W13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y13" s="118" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="120" t="s">
         <v>23</v>
       </c>
       <c r="AA13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AB13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="AC13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="AD13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE13" s="122" t="s">
-        <v>23</v>
-      </c>
-      <c r="AF13" s="120" t="s">
+      <c r="AB13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AC13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE13" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF13" s="118" t="s">
         <v>23</v>
       </c>
       <c r="AG13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AH13" s="123">
+      <c r="AH13" s="121">
         <v>30</v>
       </c>
-      <c r="AI13" s="124">
+      <c r="AI13" s="122">
         <v>30</v>
       </c>
-      <c r="AJ13" s="125">
+      <c r="AJ13" s="123">
         <v>2</v>
       </c>
-      <c r="AK13" s="125">
+      <c r="AK13" s="123">
         <v>0</v>
       </c>
-      <c r="AL13" s="126"/>
-      <c r="AM13" s="127"/>
+      <c r="AL13" s="124"/>
+      <c r="AM13" s="125"/>
     </row>
     <row r="14" spans="1:39" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
@@ -3331,7 +3339,7 @@
       <c r="P15" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Q15" s="128" t="s">
+      <c r="Q15" s="126" t="s">
         <v>50</v>
       </c>
       <c r="R15" s="15" t="s">
@@ -3407,10 +3415,10 @@
       <c r="C16" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="130" t="s">
+      <c r="D16" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="128" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="17" t="s">
@@ -3419,16 +3427,16 @@
       <c r="G16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="H16" s="130" t="s">
+      <c r="H16" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="131" t="s">
+      <c r="I16" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="131" t="s">
+      <c r="J16" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="K16" s="131" t="s">
+      <c r="K16" s="129" t="s">
         <v>35</v>
       </c>
       <c r="L16" s="63" t="s">
@@ -5195,8 +5203,8 @@
       <c r="AB31" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AC31" s="30" t="s">
-        <v>35</v>
+      <c r="AC31" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="AD31" s="30" t="s">
         <v>35</v>
@@ -5217,9 +5225,11 @@
         <v>28</v>
       </c>
       <c r="AJ31" s="47">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="47">
         <v>3</v>
       </c>
-      <c r="AK31" s="47"/>
       <c r="AL31" s="19">
         <v>2</v>
       </c>
@@ -7236,12 +7246,12 @@
         <v>104</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="141" t="s">
+      <c r="C63" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="D63" s="133"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="134"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
+      <c r="F63" s="133"/>
       <c r="G63" s="56"/>
       <c r="H63" s="52"/>
       <c r="I63" s="52"/>
@@ -7281,12 +7291,12 @@
         <v>35</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="141" t="s">
+      <c r="C64" s="140" t="s">
         <v>106</v>
       </c>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
-      <c r="F64" s="134"/>
+      <c r="D64" s="132"/>
+      <c r="E64" s="132"/>
+      <c r="F64" s="133"/>
       <c r="G64" s="56"/>
       <c r="H64" s="52"/>
       <c r="I64" s="52"/>
@@ -7324,12 +7334,12 @@
     <row r="65" spans="1:39" ht="12" x14ac:dyDescent="0.3">
       <c r="A65" s="59"/>
       <c r="B65" s="60"/>
-      <c r="C65" s="132" t="s">
+      <c r="C65" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133"/>
-      <c r="F65" s="134"/>
+      <c r="D65" s="132"/>
+      <c r="E65" s="132"/>
+      <c r="F65" s="133"/>
       <c r="G65" s="56"/>
       <c r="H65" s="52"/>
       <c r="I65" s="52"/>
@@ -7369,12 +7379,12 @@
         <v>108</v>
       </c>
       <c r="B66" s="60"/>
-      <c r="C66" s="132" t="s">
+      <c r="C66" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
-      <c r="F66" s="134"/>
+      <c r="D66" s="132"/>
+      <c r="E66" s="132"/>
+      <c r="F66" s="133"/>
       <c r="G66" s="56"/>
       <c r="H66" s="52"/>
       <c r="I66" s="52"/>
@@ -7414,12 +7424,12 @@
         <v>27</v>
       </c>
       <c r="B67" s="60"/>
-      <c r="C67" s="132" t="s">
+      <c r="C67" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
-      <c r="F67" s="134"/>
+      <c r="D67" s="132"/>
+      <c r="E67" s="132"/>
+      <c r="F67" s="133"/>
       <c r="G67" s="56"/>
       <c r="H67" s="52"/>
       <c r="I67" s="52"/>
@@ -7459,12 +7469,12 @@
         <v>111</v>
       </c>
       <c r="B68" s="60"/>
-      <c r="C68" s="132" t="s">
+      <c r="C68" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="D68" s="133"/>
-      <c r="E68" s="133"/>
-      <c r="F68" s="134"/>
+      <c r="D68" s="132"/>
+      <c r="E68" s="132"/>
+      <c r="F68" s="133"/>
       <c r="G68" s="56"/>
       <c r="H68" s="52"/>
       <c r="I68" s="52"/>
@@ -7504,12 +7514,12 @@
         <v>113</v>
       </c>
       <c r="B69" s="68"/>
-      <c r="C69" s="132" t="s">
+      <c r="C69" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="D69" s="133"/>
-      <c r="E69" s="133"/>
-      <c r="F69" s="134"/>
+      <c r="D69" s="132"/>
+      <c r="E69" s="132"/>
+      <c r="F69" s="133"/>
       <c r="G69" s="56"/>
       <c r="H69" s="52"/>
       <c r="I69" s="52"/>
@@ -7549,23 +7559,23 @@
         <v>115</v>
       </c>
       <c r="B70" s="68"/>
-      <c r="C70" s="132" t="s">
+      <c r="C70" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="134"/>
+      <c r="D70" s="132"/>
+      <c r="E70" s="132"/>
+      <c r="F70" s="133"/>
       <c r="G70" s="56"/>
       <c r="H70" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="I70" s="129"/>
-      <c r="J70" s="132" t="s">
+      <c r="I70" s="127"/>
+      <c r="J70" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="K70" s="133"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="134"/>
+      <c r="K70" s="132"/>
+      <c r="L70" s="132"/>
+      <c r="M70" s="133"/>
       <c r="N70" s="56"/>
       <c r="O70" s="56"/>
       <c r="P70" s="52"/>
@@ -7598,12 +7608,12 @@
         <v>23</v>
       </c>
       <c r="B71" s="68"/>
-      <c r="C71" s="132" t="s">
+      <c r="C71" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="D71" s="133"/>
-      <c r="E71" s="133"/>
-      <c r="F71" s="134"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
+      <c r="F71" s="133"/>
       <c r="G71" s="56"/>
       <c r="H71" s="52"/>
       <c r="I71" s="52"/>
@@ -7641,12 +7651,12 @@
     <row r="72" spans="1:39" ht="12" x14ac:dyDescent="0.3">
       <c r="A72" s="65"/>
       <c r="B72" s="66"/>
-      <c r="C72" s="132" t="s">
+      <c r="C72" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
-      <c r="F72" s="134"/>
+      <c r="D72" s="132"/>
+      <c r="E72" s="132"/>
+      <c r="F72" s="133"/>
       <c r="G72" s="56"/>
       <c r="H72" s="52"/>
       <c r="I72" s="52"/>
@@ -7686,12 +7696,12 @@
         <v>119</v>
       </c>
       <c r="B73" s="66"/>
-      <c r="C73" s="132" t="s">
+      <c r="C73" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
-      <c r="F73" s="134"/>
+      <c r="D73" s="132"/>
+      <c r="E73" s="132"/>
+      <c r="F73" s="133"/>
       <c r="G73" s="56"/>
       <c r="H73" s="52"/>
       <c r="I73" s="52"/>
@@ -7729,7 +7739,7 @@
     <row r="74" spans="1:39" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A74" s="52"/>
       <c r="B74" s="52"/>
-      <c r="C74" s="130" t="s">
+      <c r="C74" s="128" t="s">
         <v>35</v>
       </c>
       <c r="D74" s="5" t="s">
@@ -7774,7 +7784,7 @@
     <row r="75" spans="1:39" ht="11.5" x14ac:dyDescent="0.25">
       <c r="A75" s="52"/>
       <c r="B75" s="52"/>
-      <c r="C75" s="131" t="s">
+      <c r="C75" s="129" t="s">
         <v>35</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -46830,11 +46840,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:W48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C17" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="topRight" activeCell="P55" sqref="P55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -46843,13 +46855,15 @@
     <col min="3" max="3" width="24.26953125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.90625" style="6" customWidth="1"/>
     <col min="5" max="17" width="12.6328125" style="6"/>
-    <col min="18" max="18" width="26.453125" style="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="19.08984375" style="116" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" style="6" customWidth="1"/>
+    <col min="19" max="19" width="11.453125" style="114" customWidth="1"/>
     <col min="20" max="20" width="15.81640625" style="6" customWidth="1"/>
-    <col min="21" max="16384" width="12.6328125" style="6"/>
+    <col min="21" max="21" width="12.6328125" style="6"/>
+    <col min="22" max="22" width="16.08984375" style="6" customWidth="1"/>
+    <col min="23" max="16384" width="12.6328125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="73" t="s">
         <v>179</v>
       </c>
@@ -46870,10 +46884,10 @@
       <c r="P1" s="75"/>
       <c r="Q1" s="75"/>
       <c r="R1" s="73"/>
-      <c r="S1" s="114"/>
+      <c r="S1" s="112"/>
       <c r="T1" s="75"/>
     </row>
-    <row r="2" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>23</v>
       </c>
@@ -46904,10 +46918,10 @@
       <c r="R2" s="78">
         <v>7.4999999999999997E-3</v>
       </c>
-      <c r="S2" s="114"/>
+      <c r="S2" s="112"/>
       <c r="T2" s="75"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="73"/>
       <c r="B3" s="74"/>
       <c r="C3" s="75"/>
@@ -46926,10 +46940,10 @@
       <c r="P3" s="75"/>
       <c r="Q3" s="75"/>
       <c r="R3" s="73"/>
-      <c r="S3" s="114"/>
+      <c r="S3" s="112"/>
       <c r="T3" s="75"/>
     </row>
-    <row r="4" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A4" s="79"/>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -46950,10 +46964,10 @@
       <c r="P4" s="75"/>
       <c r="Q4" s="75"/>
       <c r="R4" s="73"/>
-      <c r="S4" s="114"/>
+      <c r="S4" s="112"/>
       <c r="T4" s="75"/>
     </row>
-    <row r="5" spans="1:20" ht="24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
         <v>124</v>
       </c>
@@ -47013,7 +47027,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A6" s="79">
         <v>1</v>
       </c>
@@ -47075,17 +47089,24 @@
         <f t="shared" ref="Q6:Q44" si="6">P6-(L6+M6+N6)</f>
         <v>24208</v>
       </c>
-      <c r="R6" s="94"/>
-      <c r="S6" s="114">
+      <c r="R6" s="94">
+        <v>30</v>
+      </c>
+      <c r="S6" s="112">
         <f t="shared" ref="S6:S44" si="7">Q6/F6</f>
         <v>806.93333333333328</v>
       </c>
       <c r="T6" s="95">
         <f t="shared" ref="T6:T44" si="8">S6*R6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>24208</v>
+      </c>
+      <c r="U6" s="6">
+        <v>24208</v>
+      </c>
+      <c r="V6" s="14"/>
+      <c r="W6" s="19"/>
+    </row>
+    <row r="7" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A7" s="96">
         <v>2</v>
       </c>
@@ -47147,17 +47168,24 @@
         <f t="shared" si="6"/>
         <v>26920</v>
       </c>
-      <c r="R7" s="101"/>
-      <c r="S7" s="115">
+      <c r="R7" s="101">
+        <v>30</v>
+      </c>
+      <c r="S7" s="113">
         <f t="shared" si="7"/>
         <v>897.33333333333337</v>
       </c>
       <c r="T7" s="102">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>26920</v>
+      </c>
+      <c r="U7" s="6">
+        <v>26920</v>
+      </c>
+      <c r="V7" s="22"/>
+      <c r="W7" s="28"/>
+    </row>
+    <row r="8" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A8" s="27">
         <v>3</v>
       </c>
@@ -47218,17 +47246,24 @@
         <f t="shared" si="6"/>
         <v>56200</v>
       </c>
-      <c r="R8" s="69"/>
+      <c r="R8" s="69">
+        <v>27</v>
+      </c>
       <c r="S8" s="104">
         <f t="shared" si="7"/>
         <v>1873.3333333333333</v>
       </c>
       <c r="T8" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>50580</v>
+      </c>
+      <c r="U8" s="6">
+        <v>50580</v>
+      </c>
+      <c r="V8" s="22"/>
+      <c r="W8" s="28"/>
+    </row>
+    <row r="9" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A9" s="27">
         <v>4</v>
       </c>
@@ -47290,17 +47325,24 @@
         <f t="shared" si="6"/>
         <v>29632</v>
       </c>
-      <c r="R9" s="69"/>
+      <c r="R9" s="69">
+        <v>30</v>
+      </c>
       <c r="S9" s="104">
         <f t="shared" si="7"/>
         <v>987.73333333333335</v>
       </c>
       <c r="T9" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>29632</v>
+      </c>
+      <c r="U9" s="6">
+        <v>29632</v>
+      </c>
+      <c r="V9" s="22"/>
+      <c r="W9" s="19"/>
+    </row>
+    <row r="10" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A10" s="27">
         <v>5</v>
       </c>
@@ -47362,17 +47404,24 @@
         <f t="shared" si="6"/>
         <v>32072.799999999999</v>
       </c>
-      <c r="R10" s="69"/>
+      <c r="R10" s="69">
+        <v>30</v>
+      </c>
       <c r="S10" s="104">
         <f t="shared" si="7"/>
         <v>1069.0933333333332</v>
       </c>
       <c r="T10" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>32072.799999999996</v>
+      </c>
+      <c r="U10" s="6">
+        <v>32072.799999999996</v>
+      </c>
+      <c r="V10" s="22"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A11" s="27">
         <v>6</v>
       </c>
@@ -47434,17 +47483,24 @@
         <f t="shared" si="6"/>
         <v>29632</v>
       </c>
-      <c r="R11" s="69"/>
+      <c r="R11" s="69">
+        <v>23</v>
+      </c>
       <c r="S11" s="104">
         <f t="shared" si="7"/>
         <v>987.73333333333335</v>
       </c>
       <c r="T11" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>22717.866666666669</v>
+      </c>
+      <c r="U11" s="6">
+        <v>22717.866666666669</v>
+      </c>
+      <c r="V11" s="22"/>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A12" s="27">
         <v>7</v>
       </c>
@@ -47506,17 +47562,24 @@
         <f t="shared" si="6"/>
         <v>20592</v>
       </c>
-      <c r="R12" s="69"/>
+      <c r="R12" s="69">
+        <v>28.5</v>
+      </c>
       <c r="S12" s="104">
         <f t="shared" si="7"/>
         <v>686.4</v>
       </c>
       <c r="T12" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>19562.399999999998</v>
+      </c>
+      <c r="U12" s="6">
+        <v>19562.399999999998</v>
+      </c>
+      <c r="V12" s="35"/>
+      <c r="W12" s="28"/>
+    </row>
+    <row r="13" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A13" s="27">
         <v>8</v>
       </c>
@@ -47578,17 +47641,24 @@
         <f t="shared" si="6"/>
         <v>17130</v>
       </c>
-      <c r="R13" s="69"/>
+      <c r="R13" s="69">
+        <v>30</v>
+      </c>
       <c r="S13" s="104">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
       <c r="T13" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>17130</v>
+      </c>
+      <c r="U13" s="6">
+        <v>17130</v>
+      </c>
+      <c r="V13" s="35"/>
+      <c r="W13" s="28"/>
+    </row>
+    <row r="14" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A14" s="27">
         <v>9</v>
       </c>
@@ -47650,17 +47720,24 @@
         <f t="shared" si="6"/>
         <v>26920</v>
       </c>
-      <c r="R14" s="69"/>
+      <c r="R14" s="69">
+        <v>30</v>
+      </c>
       <c r="S14" s="104">
         <f t="shared" si="7"/>
         <v>897.33333333333337</v>
       </c>
       <c r="T14" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>26920</v>
+      </c>
+      <c r="U14" s="6">
+        <v>26920</v>
+      </c>
+      <c r="V14" s="22"/>
+      <c r="W14" s="28"/>
+    </row>
+    <row r="15" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A15" s="27">
         <v>10</v>
       </c>
@@ -47722,17 +47799,24 @@
         <f t="shared" si="6"/>
         <v>24208</v>
       </c>
-      <c r="R15" s="69"/>
+      <c r="R15" s="69">
+        <v>30</v>
+      </c>
       <c r="S15" s="104">
         <f t="shared" si="7"/>
         <v>806.93333333333328</v>
       </c>
       <c r="T15" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>24208</v>
+      </c>
+      <c r="U15" s="6">
+        <v>24208</v>
+      </c>
+      <c r="V15" s="117"/>
+      <c r="W15" s="122"/>
+    </row>
+    <row r="16" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A16" s="27">
         <v>11</v>
       </c>
@@ -47793,17 +47877,24 @@
         <f t="shared" si="6"/>
         <v>46200</v>
       </c>
-      <c r="R16" s="69"/>
+      <c r="R16" s="69">
+        <v>30</v>
+      </c>
       <c r="S16" s="104">
         <f t="shared" si="7"/>
         <v>1540</v>
       </c>
       <c r="T16" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>46200</v>
+      </c>
+      <c r="U16" s="6">
+        <v>46200</v>
+      </c>
+      <c r="V16" s="22"/>
+      <c r="W16" s="28"/>
+    </row>
+    <row r="17" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A17" s="27">
         <v>12</v>
       </c>
@@ -47865,17 +47956,24 @@
         <f t="shared" si="6"/>
         <v>17130</v>
       </c>
-      <c r="R17" s="69"/>
+      <c r="R17" s="69">
+        <v>30</v>
+      </c>
       <c r="S17" s="104">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
       <c r="T17" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>17130</v>
+      </c>
+      <c r="U17" s="6">
+        <v>17130</v>
+      </c>
+      <c r="V17" s="22"/>
+      <c r="W17" s="28"/>
+    </row>
+    <row r="18" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A18" s="27">
         <v>14</v>
       </c>
@@ -47937,17 +48035,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R18" s="69"/>
+      <c r="R18" s="69">
+        <v>29</v>
+      </c>
       <c r="S18" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T18" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12383</v>
+      </c>
+      <c r="U18" s="6">
+        <v>12383</v>
+      </c>
+      <c r="V18" s="22"/>
+      <c r="W18" s="28"/>
+    </row>
+    <row r="19" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A19" s="27">
         <v>15</v>
       </c>
@@ -48009,17 +48114,24 @@
         <f t="shared" si="6"/>
         <v>11232</v>
       </c>
-      <c r="R19" s="69"/>
+      <c r="R19" s="69">
+        <v>29.5</v>
+      </c>
       <c r="S19" s="104">
         <f t="shared" si="7"/>
         <v>374.4</v>
       </c>
       <c r="T19" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>11044.8</v>
+      </c>
+      <c r="U19" s="6">
+        <v>11044.8</v>
+      </c>
+      <c r="V19" s="35"/>
+      <c r="W19" s="28"/>
+    </row>
+    <row r="20" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A20" s="27">
         <v>16</v>
       </c>
@@ -48081,17 +48193,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R20" s="69"/>
+      <c r="R20" s="69">
+        <v>22</v>
+      </c>
       <c r="S20" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T20" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>9394</v>
+      </c>
+      <c r="U20" s="6">
+        <v>9394</v>
+      </c>
+      <c r="V20" s="22"/>
+      <c r="W20" s="28"/>
+    </row>
+    <row r="21" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A21" s="27">
         <v>17</v>
       </c>
@@ -48153,17 +48272,24 @@
         <f t="shared" si="6"/>
         <v>11232</v>
       </c>
-      <c r="R21" s="69"/>
+      <c r="R21" s="69">
+        <v>30</v>
+      </c>
       <c r="S21" s="104">
         <f t="shared" si="7"/>
         <v>374.4</v>
       </c>
       <c r="T21" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>11232</v>
+      </c>
+      <c r="U21" s="6">
+        <v>11232</v>
+      </c>
+      <c r="V21" s="22"/>
+      <c r="W21" s="28"/>
+    </row>
+    <row r="22" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A22" s="27">
         <v>18</v>
       </c>
@@ -48225,17 +48351,24 @@
         <f t="shared" si="6"/>
         <v>12096</v>
       </c>
-      <c r="R22" s="69"/>
+      <c r="R22" s="69">
+        <v>30</v>
+      </c>
       <c r="S22" s="104">
         <f t="shared" si="7"/>
         <v>403.2</v>
       </c>
       <c r="T22" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12096</v>
+      </c>
+      <c r="U22" s="6">
+        <v>12096</v>
+      </c>
+      <c r="V22" s="35"/>
+      <c r="W22" s="28"/>
+    </row>
+    <row r="23" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A23" s="27">
         <v>19</v>
       </c>
@@ -48297,17 +48430,24 @@
         <f t="shared" si="6"/>
         <v>11232</v>
       </c>
-      <c r="R23" s="69"/>
+      <c r="R23" s="69">
+        <v>30</v>
+      </c>
       <c r="S23" s="104">
         <f t="shared" si="7"/>
         <v>374.4</v>
       </c>
       <c r="T23" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>11232</v>
+      </c>
+      <c r="U23" s="6">
+        <v>11232</v>
+      </c>
+      <c r="V23" s="22"/>
+      <c r="W23" s="28"/>
+    </row>
+    <row r="24" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A24" s="27">
         <v>20</v>
       </c>
@@ -48369,17 +48509,24 @@
         <f t="shared" si="6"/>
         <v>12096</v>
       </c>
-      <c r="R24" s="69"/>
+      <c r="R24" s="69">
+        <v>30</v>
+      </c>
       <c r="S24" s="104">
         <f t="shared" si="7"/>
         <v>403.2</v>
       </c>
       <c r="T24" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12096</v>
+      </c>
+      <c r="U24" s="6">
+        <v>12096</v>
+      </c>
+      <c r="V24" s="22"/>
+      <c r="W24" s="28"/>
+    </row>
+    <row r="25" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>21</v>
       </c>
@@ -48441,17 +48588,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R25" s="69"/>
+      <c r="R25" s="69">
+        <v>30</v>
+      </c>
       <c r="S25" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T25" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U25" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V25" s="22"/>
+      <c r="W25" s="28"/>
+    </row>
+    <row r="26" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>22</v>
       </c>
@@ -48513,17 +48667,24 @@
         <f t="shared" si="6"/>
         <v>11232</v>
       </c>
-      <c r="R26" s="69"/>
+      <c r="R26" s="69">
+        <v>30</v>
+      </c>
       <c r="S26" s="104">
         <f t="shared" si="7"/>
         <v>374.4</v>
       </c>
       <c r="T26" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>11232</v>
+      </c>
+      <c r="U26" s="6">
+        <v>11232</v>
+      </c>
+      <c r="V26" s="22"/>
+      <c r="W26" s="28"/>
+    </row>
+    <row r="27" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>23</v>
       </c>
@@ -48585,17 +48746,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R27" s="69"/>
+      <c r="R27" s="69">
+        <v>30</v>
+      </c>
       <c r="S27" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T27" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U27" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V27" s="22"/>
+      <c r="W27" s="28"/>
+    </row>
+    <row r="28" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A28" s="27">
         <v>24</v>
       </c>
@@ -48656,17 +48824,26 @@
         <f t="shared" si="6"/>
         <v>40200</v>
       </c>
-      <c r="R28" s="69"/>
+      <c r="R28" s="69">
+        <v>30</v>
+      </c>
       <c r="S28" s="104">
         <f t="shared" si="7"/>
         <v>1340</v>
       </c>
       <c r="T28" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>40200</v>
+      </c>
+      <c r="U28" s="6">
+        <v>40200</v>
+      </c>
+      <c r="V28" s="130">
+        <v>40200</v>
+      </c>
+      <c r="W28" s="28"/>
+    </row>
+    <row r="29" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>25</v>
       </c>
@@ -48728,17 +48905,26 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R29" s="69"/>
+      <c r="R29" s="69">
+        <v>29.5</v>
+      </c>
       <c r="S29" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T29" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12596.5</v>
+      </c>
+      <c r="U29" s="6">
+        <v>12596.5</v>
+      </c>
+      <c r="V29" s="22">
+        <v>12597</v>
+      </c>
+      <c r="W29" s="28"/>
+    </row>
+    <row r="30" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A30" s="27">
         <v>26</v>
       </c>
@@ -48800,17 +48986,26 @@
         <f t="shared" si="6"/>
         <v>10368</v>
       </c>
-      <c r="R30" s="69"/>
+      <c r="R30" s="69">
+        <v>30</v>
+      </c>
       <c r="S30" s="104">
         <f t="shared" si="7"/>
         <v>345.6</v>
       </c>
       <c r="T30" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>10368</v>
+      </c>
+      <c r="U30" s="6">
+        <v>10368</v>
+      </c>
+      <c r="V30" s="35">
+        <v>10368</v>
+      </c>
+      <c r="W30" s="19"/>
+    </row>
+    <row r="31" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A31" s="27">
         <v>27</v>
       </c>
@@ -48872,17 +49067,26 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R31" s="69"/>
+      <c r="R31" s="69">
+        <v>30</v>
+      </c>
       <c r="S31" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T31" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U31" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V31" s="35">
+        <v>12810</v>
+      </c>
+      <c r="W31" s="28"/>
+    </row>
+    <row r="32" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A32" s="27">
         <v>28</v>
       </c>
@@ -48944,17 +49148,24 @@
         <f t="shared" si="6"/>
         <v>14278.8</v>
       </c>
-      <c r="R32" s="69"/>
+      <c r="R32" s="69">
+        <v>30</v>
+      </c>
       <c r="S32" s="104">
         <f t="shared" si="7"/>
         <v>475.96</v>
       </c>
       <c r="T32" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>14278.8</v>
+      </c>
+      <c r="U32" s="6">
+        <v>14278.8</v>
+      </c>
+      <c r="V32" s="22"/>
+      <c r="W32" s="19"/>
+    </row>
+    <row r="33" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A33" s="27">
         <v>29</v>
       </c>
@@ -49016,17 +49227,24 @@
         <f t="shared" si="6"/>
         <v>11232</v>
       </c>
-      <c r="R33" s="69"/>
+      <c r="R33" s="69">
+        <v>28</v>
+      </c>
       <c r="S33" s="104">
         <f t="shared" si="7"/>
         <v>374.4</v>
       </c>
       <c r="T33" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>10483.199999999999</v>
+      </c>
+      <c r="U33" s="6">
+        <v>10483.199999999999</v>
+      </c>
+      <c r="V33" s="35"/>
+      <c r="W33" s="28"/>
+    </row>
+    <row r="34" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A34" s="27">
         <v>30</v>
       </c>
@@ -49088,17 +49306,24 @@
         <f t="shared" si="6"/>
         <v>12096</v>
       </c>
-      <c r="R34" s="69"/>
+      <c r="R34" s="69">
+        <v>9</v>
+      </c>
       <c r="S34" s="104">
         <f t="shared" si="7"/>
         <v>403.2</v>
       </c>
       <c r="T34" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>3628.7999999999997</v>
+      </c>
+      <c r="U34" s="6">
+        <v>3628.7999999999997</v>
+      </c>
+      <c r="V34" s="35"/>
+      <c r="W34" s="28"/>
+    </row>
+    <row r="35" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A35" s="27">
         <v>41</v>
       </c>
@@ -49160,17 +49385,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R35" s="69"/>
+      <c r="R35" s="69">
+        <v>30</v>
+      </c>
       <c r="S35" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T35" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U35" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V35" s="35"/>
+      <c r="W35" s="28"/>
+    </row>
+    <row r="36" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A36" s="27">
         <v>45</v>
       </c>
@@ -49232,17 +49464,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R36" s="69"/>
+      <c r="R36" s="69">
+        <v>30</v>
+      </c>
       <c r="S36" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T36" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U36" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V36" s="35"/>
+      <c r="W36" s="28"/>
+    </row>
+    <row r="37" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>46</v>
       </c>
@@ -49304,17 +49543,24 @@
         <f t="shared" si="6"/>
         <v>12810</v>
       </c>
-      <c r="R37" s="69"/>
+      <c r="R37" s="69">
+        <v>30</v>
+      </c>
       <c r="S37" s="104">
         <f t="shared" si="7"/>
         <v>427</v>
       </c>
       <c r="T37" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>12810</v>
+      </c>
+      <c r="U37" s="6">
+        <v>12810</v>
+      </c>
+      <c r="V37" s="35"/>
+      <c r="W37" s="28"/>
+    </row>
+    <row r="38" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>48</v>
       </c>
@@ -49376,17 +49622,24 @@
         <f t="shared" si="6"/>
         <v>17130</v>
       </c>
-      <c r="R38" s="69"/>
+      <c r="R38" s="69">
+        <v>30</v>
+      </c>
       <c r="S38" s="104">
         <f t="shared" si="7"/>
         <v>571</v>
       </c>
       <c r="T38" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>17130</v>
+      </c>
+      <c r="U38" s="6">
+        <v>17130</v>
+      </c>
+      <c r="V38" s="43"/>
+      <c r="W38" s="28"/>
+    </row>
+    <row r="39" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>49</v>
       </c>
@@ -49448,17 +49701,24 @@
         <f t="shared" si="6"/>
         <v>15402</v>
       </c>
-      <c r="R39" s="69"/>
+      <c r="R39" s="69">
+        <v>30</v>
+      </c>
       <c r="S39" s="104">
         <f t="shared" si="7"/>
         <v>513.4</v>
       </c>
       <c r="T39" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>15402</v>
+      </c>
+      <c r="U39" s="6">
+        <v>15402</v>
+      </c>
+      <c r="V39" s="44"/>
+      <c r="W39" s="28"/>
+    </row>
+    <row r="40" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>50</v>
       </c>
@@ -49520,17 +49780,24 @@
         <f t="shared" si="6"/>
         <v>19688</v>
       </c>
-      <c r="R40" s="69"/>
+      <c r="R40" s="69">
+        <v>30</v>
+      </c>
       <c r="S40" s="104">
         <f t="shared" si="7"/>
         <v>656.26666666666665</v>
       </c>
       <c r="T40" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>19688</v>
+      </c>
+      <c r="U40" s="6">
+        <v>19688</v>
+      </c>
+      <c r="V40" s="44"/>
+      <c r="W40" s="28"/>
+    </row>
+    <row r="41" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>51</v>
       </c>
@@ -49582,7 +49849,9 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R41" s="69"/>
+      <c r="R41" s="69">
+        <v>30</v>
+      </c>
       <c r="S41" s="104">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -49591,8 +49860,13 @@
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+      <c r="U41" s="6">
+        <v>0</v>
+      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="19"/>
+    </row>
+    <row r="42" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="42" t="s">
         <v>158</v>
@@ -49650,17 +49924,24 @@
         <f t="shared" si="6"/>
         <v>7000</v>
       </c>
-      <c r="R42" s="69"/>
+      <c r="R42" s="69">
+        <v>30</v>
+      </c>
       <c r="S42" s="104">
         <f t="shared" si="7"/>
         <v>233.33333333333334</v>
       </c>
       <c r="T42" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>7000</v>
+      </c>
+      <c r="U42" s="6">
+        <v>7000</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="50"/>
+    </row>
+    <row r="43" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="42"/>
       <c r="C43" s="43" t="s">
@@ -49696,17 +49977,11 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="M43" s="71">
-        <f t="shared" ref="M43:M44" si="19">I43*24%</f>
-        <v>1440</v>
-      </c>
-      <c r="N43" s="71">
-        <f t="shared" ref="N43:N44" si="20">IF(H43&lt;=21000, H43*4%, 0)</f>
-        <v>600</v>
-      </c>
+      <c r="M43" s="71"/>
+      <c r="N43" s="71"/>
       <c r="O43" s="71">
         <f t="shared" si="4"/>
-        <v>2810</v>
+        <v>4850</v>
       </c>
       <c r="P43" s="71">
         <f t="shared" si="5"/>
@@ -49714,19 +49989,26 @@
       </c>
       <c r="Q43" s="71">
         <f t="shared" si="6"/>
-        <v>12810</v>
-      </c>
-      <c r="R43" s="69"/>
+        <v>14850</v>
+      </c>
+      <c r="R43" s="69">
+        <v>30</v>
+      </c>
       <c r="S43" s="104">
         <f t="shared" si="7"/>
-        <v>427</v>
+        <v>495</v>
       </c>
       <c r="T43" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>14850</v>
+      </c>
+      <c r="U43" s="6">
+        <v>14850</v>
+      </c>
+      <c r="V43" s="45"/>
+      <c r="W43" s="19"/>
+    </row>
+    <row r="44" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="42" t="s">
         <v>158</v>
@@ -49766,17 +50048,11 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M44" s="71">
-        <f t="shared" si="19"/>
-        <v>480</v>
-      </c>
-      <c r="N44" s="71">
-        <f t="shared" si="20"/>
-        <v>200</v>
-      </c>
+      <c r="M44" s="71"/>
+      <c r="N44" s="71"/>
       <c r="O44" s="71">
         <f t="shared" si="4"/>
-        <v>-80</v>
+        <v>600</v>
       </c>
       <c r="P44" s="71">
         <f t="shared" si="5"/>
@@ -49784,76 +50060,139 @@
       </c>
       <c r="Q44" s="71">
         <f t="shared" si="6"/>
-        <v>4320</v>
-      </c>
-      <c r="R44" s="69"/>
+        <v>5000</v>
+      </c>
+      <c r="R44" s="69">
+        <v>12</v>
+      </c>
       <c r="S44" s="104">
         <f t="shared" si="7"/>
-        <v>144</v>
+        <v>166.66666666666666</v>
       </c>
       <c r="T44" s="103">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+        <v>2000</v>
+      </c>
+      <c r="U44" s="6">
+        <v>2000</v>
+      </c>
+      <c r="V44" s="1"/>
+      <c r="W44" s="19"/>
+    </row>
+    <row r="45" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A45" s="52"/>
       <c r="B45" s="109"/>
-      <c r="C45" s="55"/>
+      <c r="C45" s="55" t="s">
+        <v>206</v>
+      </c>
       <c r="D45" s="54"/>
       <c r="E45" s="110"/>
       <c r="F45" s="91">
         <v>30</v>
       </c>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="111"/>
-      <c r="R45" s="54"/>
-      <c r="S45" s="112"/>
-      <c r="T45" s="113"/>
-    </row>
-    <row r="46" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+      <c r="G45" s="72">
+        <v>5000</v>
+      </c>
+      <c r="H45" s="93">
+        <f>+ROUND(G45/B2*F45,0)</f>
+        <v>5000</v>
+      </c>
+      <c r="I45" s="71">
+        <f t="shared" ref="I45" si="19">+ROUND(H45*0.4,0)</f>
+        <v>2000</v>
+      </c>
+      <c r="J45" s="71">
+        <f t="shared" ref="J45" si="20">+ROUND(I45*0.4,0)</f>
+        <v>800</v>
+      </c>
+      <c r="K45" s="71">
+        <v>1600</v>
+      </c>
+      <c r="L45" s="71">
+        <f t="shared" ref="L45" si="21">+ROUND(IF(H45&lt;15000,0,IF(H45&lt;=20000,150,IF(H45&gt;20000,200,0))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="71"/>
+      <c r="N45" s="71"/>
+      <c r="O45" s="71">
+        <f t="shared" ref="O45" si="22">H45-(I45+J45+K45+L45+M45+N45)</f>
+        <v>600</v>
+      </c>
+      <c r="P45" s="71">
+        <f t="shared" ref="P45" si="23">SUM(I45:O45)</f>
+        <v>5000</v>
+      </c>
+      <c r="Q45" s="71">
+        <f t="shared" ref="Q45" si="24">P45-(L45+M45+N45)</f>
+        <v>5000</v>
+      </c>
+      <c r="R45" s="69">
+        <v>11</v>
+      </c>
+      <c r="S45" s="104">
+        <f t="shared" ref="S45:S47" si="25">Q45/F45</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="T45" s="103">
+        <f t="shared" ref="T45:T47" si="26">S45*R45</f>
+        <v>1833.3333333333333</v>
+      </c>
+      <c r="U45" s="6">
+        <v>1833.3333333333333</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A46" s="52"/>
       <c r="B46" s="109"/>
-      <c r="C46" s="55"/>
+      <c r="C46" s="55" t="s">
+        <v>207</v>
+      </c>
       <c r="D46" s="54"/>
       <c r="E46" s="110"/>
       <c r="F46" s="91">
         <v>30</v>
       </c>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="111"/>
-      <c r="R46" s="54"/>
-      <c r="S46" s="112"/>
-      <c r="T46" s="113"/>
-    </row>
-    <row r="47" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+      <c r="G46" s="141">
+        <v>5000</v>
+      </c>
+      <c r="H46" s="93"/>
+      <c r="I46" s="71"/>
+      <c r="J46" s="71"/>
+      <c r="K46" s="71"/>
+      <c r="L46" s="71"/>
+      <c r="M46" s="71"/>
+      <c r="N46" s="71"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71">
+        <v>5000</v>
+      </c>
+      <c r="R46" s="54">
+        <v>5</v>
+      </c>
+      <c r="S46" s="104">
+        <f t="shared" si="25"/>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="T46" s="103">
+        <f t="shared" si="26"/>
+        <v>833.33333333333326</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="A47" s="52"/>
       <c r="B47" s="109"/>
-      <c r="C47" s="55"/>
+      <c r="C47" s="55" t="s">
+        <v>208</v>
+      </c>
       <c r="D47" s="54"/>
       <c r="E47" s="110"/>
       <c r="F47" s="91">
         <v>30</v>
       </c>
-      <c r="G47" s="55"/>
+      <c r="G47" s="141">
+        <v>7000</v>
+      </c>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
@@ -49863,12 +50202,22 @@
       <c r="N47" s="55"/>
       <c r="O47" s="55"/>
       <c r="P47" s="55"/>
-      <c r="Q47" s="111"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="112"/>
-      <c r="T47" s="113"/>
-    </row>
-    <row r="48" spans="1:20" ht="12" x14ac:dyDescent="0.3">
+      <c r="Q47" s="111">
+        <v>7000</v>
+      </c>
+      <c r="R47" s="54">
+        <v>4</v>
+      </c>
+      <c r="S47" s="104">
+        <f t="shared" si="25"/>
+        <v>233.33333333333334</v>
+      </c>
+      <c r="T47" s="103">
+        <f t="shared" si="26"/>
+        <v>933.33333333333337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="12" x14ac:dyDescent="0.3">
       <c r="F48" s="91">
         <v>30</v>
       </c>
@@ -49880,10 +50229,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V10" sqref="V10"/>
     </sheetView>
   </sheetViews>
